--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288695.7370942862</v>
+        <v>286257.2639945392</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>282.4605077549094</v>
       </c>
       <c r="D2" t="n">
-        <v>210.8849436829578</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>143.7552444269554</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.148488117499767</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>212.6652167733019</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.9446243547902</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>278.7948764950052</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>19.22154592324258</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>77.84724700848588</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.52676208877504</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>78.78083674902071</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>63.92285537894119</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179435</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986348</v>
       </c>
       <c r="D13" t="n">
-        <v>145.2857567969021</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833122</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>24.83266606352953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503951</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.82863813027228</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>82.4729044930077</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892427807</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.8146543619969</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>83.29550035394</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>113.5413580759691</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.56412890121557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>192.8170508184369</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>139.3687739767481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1030.093615002805</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C2" t="n">
-        <v>1030.093615002805</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>817.078520373555</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2864.130087917504</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2533.067200573933</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2180.298545303819</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1806.832787042739</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>1416.693455066927</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1732.022093777475</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>1732.022093777475</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>1732.022093777475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>1732.022093777475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759798</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.7753643667</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.7753643667</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936226</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2724.905882061869</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2470.221393855983</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>2180.804223819022</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X4" t="n">
-        <v>1952.814672921005</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1732.022093777475</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1918.208919851716</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C5" t="n">
-        <v>1549.246402911304</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.980704304554</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>805.1924517063094</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2304.808759915838</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>717.3698800184451</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C7" t="n">
-        <v>548.4336970905382</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,19 +4723,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1758.830508009166</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1537.063892578692</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783663</v>
+        <v>1247.961025704335</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783663</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.007895746702</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X7" t="n">
-        <v>899.0183448486848</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y7" t="n">
-        <v>899.0183448486848</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2345.167438673965</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>712.9584475362284</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C10" t="n">
-        <v>544.0222646083215</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>544.0222646083215</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>396.1091710259284</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>396.1091710259284</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>228.4063344006474</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577776</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.740577577776</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>933.7510266797585</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.9584475362284</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121573</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998216</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998216</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998216</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998216</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876677</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614375</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4664207350971</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227614</v>
+        <v>363.7369613277338</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4366877403683</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5467402424579</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="G19" t="n">
-        <v>164.3506409573378</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>164.3506409573378</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>613.6374994204285</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>465.7244058380354</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>318.834458340125</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C25" t="n">
-        <v>785.3114619327533</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D25" t="n">
-        <v>635.1948225204176</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E25" t="n">
-        <v>487.2817289380245</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>340.3917814401141</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y25" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="26">
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>639.9526724577793</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>492.0395788753862</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>345.1496313774758</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>177.9535320923557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,43 +6470,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,13 +7008,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
@@ -7023,19 +7023,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2526.197884723913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>493.2161050975141</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>57.26675306204704</v>
       </c>
       <c r="D2" t="n">
-        <v>143.7980979377251</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.329716221310235</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864789267</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.4141550350983</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819382</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187378</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>11.43719818829325</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>83.05123379926114</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.3683537222911</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>61.70948393027197</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>56.99921249228389</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>32.89260457060003</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.58839950885135</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>981408.7301534977</v>
+        <v>981408.7301534981</v>
       </c>
     </row>
     <row r="3">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019032</v>
+        <v>335917.9865019034</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.796438928</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="H2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="I2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="H2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605029</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="L2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="L2" t="n">
-        <v>363215.9698605028</v>
-      </c>
       <c r="M2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605026</v>
@@ -26353,7 +26353,7 @@
         <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48409.12727549186</v>
+        <v>48409.12727549217</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26442,19 +26442,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="N4" t="n">
         <v>11776.97621680587</v>
       </c>
-      <c r="M4" t="n">
-        <v>11776.97621680586</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680582</v>
-      </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1149169.827062575</v>
+        <v>-1149356.220451114</v>
       </c>
       <c r="C6" t="n">
-        <v>170570.8448893776</v>
+        <v>170570.8448893774</v>
       </c>
       <c r="D6" t="n">
-        <v>170570.8448893772</v>
+        <v>170570.844889377</v>
       </c>
       <c r="E6" t="n">
-        <v>-75095.99798756512</v>
+        <v>-75130.73591300083</v>
       </c>
       <c r="F6" t="n">
-        <v>250316.4638197895</v>
+        <v>250281.7258943538</v>
       </c>
       <c r="G6" t="n">
-        <v>250316.4638197898</v>
+        <v>250281.7258943539</v>
       </c>
       <c r="H6" t="n">
-        <v>250316.4638197898</v>
+        <v>250281.7258943541</v>
       </c>
       <c r="I6" t="n">
-        <v>250316.4638197899</v>
+        <v>250281.725894354</v>
       </c>
       <c r="J6" t="n">
-        <v>32785.26142251217</v>
+        <v>32750.52349707644</v>
       </c>
       <c r="K6" t="n">
-        <v>250316.4638197896</v>
+        <v>250281.7258943539</v>
       </c>
       <c r="L6" t="n">
-        <v>250316.4638197898</v>
+        <v>250281.7258943539</v>
       </c>
       <c r="M6" t="n">
-        <v>165261.435884278</v>
+        <v>165226.6979588423</v>
       </c>
       <c r="N6" t="n">
-        <v>250316.4638197897</v>
+        <v>250281.725894354</v>
       </c>
       <c r="O6" t="n">
-        <v>250316.4638197899</v>
+        <v>250281.7258943541</v>
       </c>
       <c r="P6" t="n">
-        <v>250316.4638197897</v>
+        <v>250281.7258943541</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>25.54563095405113</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>107.2399275319465</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>143.2725599054315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.85778156328905</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.32826741621739</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>128.0811692467062</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>129.3939270949698</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>111.921778322956</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.1562795319079</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>270.4601319683923</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>80.83215953537959</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098577</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-6.97563488453549e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
     </row>
     <row r="20">
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.82074706608963e-12</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253233</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>152.5685698206133</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.1165249313368</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033049</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>25.73094315394599</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306621</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
